--- a/techniqo/data_new_ticker/CREDITACC.xlsx
+++ b/techniqo/data_new_ticker/CREDITACC.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G509"/>
+  <dimension ref="A1:G511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18201,6 +18201,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>735</v>
+      </c>
+      <c r="C510" t="n">
+        <v>748.75</v>
+      </c>
+      <c r="D510" t="n">
+        <v>711.4</v>
+      </c>
+      <c r="E510" t="n">
+        <v>720.85</v>
+      </c>
+      <c r="F510" t="n">
+        <v>260784</v>
+      </c>
+      <c r="G510" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>738</v>
+      </c>
+      <c r="C511" t="n">
+        <v>745.3</v>
+      </c>
+      <c r="D511" t="n">
+        <v>715.25</v>
+      </c>
+      <c r="E511" t="n">
+        <v>727</v>
+      </c>
+      <c r="F511" t="n">
+        <v>89532</v>
+      </c>
+      <c r="G511" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/CREDITACC.xlsx
+++ b/techniqo/data_new_ticker/CREDITACC.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G511"/>
+  <dimension ref="A1:G513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18251,6 +18251,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>716.25</v>
+      </c>
+      <c r="C512" t="n">
+        <v>743.5</v>
+      </c>
+      <c r="D512" t="n">
+        <v>716.2</v>
+      </c>
+      <c r="E512" t="n">
+        <v>722.9</v>
+      </c>
+      <c r="F512" t="n">
+        <v>151697</v>
+      </c>
+      <c r="G512" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>725.05</v>
+      </c>
+      <c r="C513" t="n">
+        <v>735.55</v>
+      </c>
+      <c r="D513" t="n">
+        <v>717.2</v>
+      </c>
+      <c r="E513" t="n">
+        <v>725.4</v>
+      </c>
+      <c r="F513" t="n">
+        <v>56269</v>
+      </c>
+      <c r="G513" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
